--- a/StructureDefinition-us-core-average-blood-pressure.xlsx
+++ b/StructureDefinition-us-core-average-blood-pressure.xlsx
@@ -901,8 +901,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-Period</t>
+    <t xml:space="preserve">Period
+</t>
   </si>
   <si>
     <t>(USCDI) clinically relevant time-period for the average of blood pressure (BP) readings</t>

--- a/StructureDefinition-us-core-average-blood-pressure.xlsx
+++ b/StructureDefinition-us-core-average-blood-pressure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3646" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3646" uniqueCount="578">
   <si>
     <t>Property</t>
   </si>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>\-</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -2303,19 +2307,19 @@
         <v>40</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>40</v>
@@ -2326,10 +2330,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2340,7 +2344,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>40</v>
@@ -2349,19 +2353,19 @@
         <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2411,13 +2415,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -2446,10 +2450,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2460,7 +2464,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>40</v>
@@ -2469,16 +2473,16 @@
         <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2529,19 +2533,19 @@
         <v>40</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -2564,10 +2568,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2578,28 +2582,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2649,19 +2653,19 @@
         <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>40</v>
@@ -2684,10 +2688,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2698,7 +2702,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>40</v>
@@ -2710,16 +2714,16 @@
         <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2745,13 +2749,13 @@
         <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>40</v>
@@ -2769,19 +2773,19 @@
         <v>40</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>40</v>
@@ -2804,21 +2808,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>40</v>
@@ -2830,16 +2834,16 @@
         <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2889,19 +2893,19 @@
         <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>40</v>
@@ -2913,7 +2917,7 @@
         <v>40</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>40</v>
@@ -2924,14 +2928,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2950,16 +2954,16 @@
         <v>40</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3009,7 +3013,7 @@
         <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -3033,7 +3037,7 @@
         <v>40</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>40</v>
@@ -3044,14 +3048,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3070,16 +3074,16 @@
         <v>40</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3129,7 +3133,7 @@
         <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -3141,7 +3145,7 @@
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -3153,7 +3157,7 @@
         <v>40</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>40</v>
@@ -3164,14 +3168,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3184,25 +3188,25 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>40</v>
@@ -3251,7 +3255,7 @@
         <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -3263,7 +3267,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>40</v>
@@ -3275,7 +3279,7 @@
         <v>40</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>40</v>
@@ -3286,10 +3290,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3309,20 +3313,20 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>40</v>
@@ -3371,7 +3375,7 @@
         <v>40</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -3383,22 +3387,22 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>40</v>
@@ -3406,14 +3410,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3429,20 +3433,20 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>40</v>
@@ -3491,7 +3495,7 @@
         <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3503,19 +3507,19 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>40</v>
@@ -3526,14 +3530,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3549,19 +3553,19 @@
         <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3611,7 +3615,7 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
@@ -3623,19 +3627,19 @@
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>40</v>
@@ -3646,10 +3650,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3657,34 +3661,34 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>40</v>
@@ -3709,11 +3713,11 @@
         <v>40</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Y13" s="2"/>
       <c r="Z13" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>40</v>
@@ -3731,34 +3735,34 @@
         <v>40</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>40</v>
@@ -3766,10 +3770,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3777,13 +3781,13 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>40</v>
@@ -3792,19 +3796,19 @@
         <v>40</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>40</v>
@@ -3829,29 +3833,29 @@
         <v>40</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AC14" s="2"/>
       <c r="AD14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
@@ -3863,7 +3867,7 @@
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
@@ -3875,10 +3879,10 @@
         <v>40</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>40</v>
@@ -3886,26 +3890,26 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>40</v>
@@ -3914,19 +3918,19 @@
         <v>40</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>40</v>
@@ -3951,13 +3955,13 @@
         <v>40</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>40</v>
@@ -3975,7 +3979,7 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
@@ -3987,7 +3991,7 @@
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
@@ -3999,10 +4003,10 @@
         <v>40</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>40</v>
@@ -4010,10 +4014,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4024,7 +4028,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
@@ -4036,13 +4040,13 @@
         <v>40</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4093,13 +4097,13 @@
         <v>40</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>40</v>
@@ -4117,7 +4121,7 @@
         <v>40</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>40</v>
@@ -4128,14 +4132,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4154,16 +4158,16 @@
         <v>40</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4201,19 +4205,19 @@
         <v>40</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
@@ -4225,7 +4229,7 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>40</v>
@@ -4237,7 +4241,7 @@
         <v>40</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>40</v>
@@ -4248,10 +4252,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4259,34 +4263,34 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>40</v>
@@ -4335,7 +4339,7 @@
         <v>40</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
@@ -4347,7 +4351,7 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>40</v>
@@ -4356,10 +4360,10 @@
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>40</v>
@@ -4370,10 +4374,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4384,7 +4388,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>40</v>
@@ -4396,13 +4400,13 @@
         <v>40</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4453,13 +4457,13 @@
         <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>40</v>
@@ -4477,7 +4481,7 @@
         <v>40</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>40</v>
@@ -4488,14 +4492,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4514,16 +4518,16 @@
         <v>40</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4561,19 +4565,19 @@
         <v>40</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AD20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
@@ -4585,7 +4589,7 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>40</v>
@@ -4597,7 +4601,7 @@
         <v>40</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>40</v>
@@ -4608,10 +4612,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4619,41 +4623,41 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>40</v>
@@ -4695,19 +4699,19 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>40</v>
@@ -4716,10 +4720,10 @@
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>40</v>
@@ -4730,10 +4734,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4744,7 +4748,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>40</v>
@@ -4753,19 +4757,19 @@
         <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4815,19 +4819,19 @@
         <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>40</v>
@@ -4836,10 +4840,10 @@
         <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>40</v>
@@ -4850,10 +4854,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4861,39 +4865,39 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>40</v>
@@ -4935,19 +4939,19 @@
         <v>40</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
@@ -4956,10 +4960,10 @@
         <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>40</v>
@@ -4970,10 +4974,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4984,7 +4988,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
@@ -4993,20 +4997,20 @@
         <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>40</v>
@@ -5055,19 +5059,19 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>40</v>
@@ -5076,10 +5080,10 @@
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>40</v>
@@ -5090,10 +5094,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5104,7 +5108,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
@@ -5113,22 +5117,22 @@
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>40</v>
@@ -5177,19 +5181,19 @@
         <v>40</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>40</v>
@@ -5198,10 +5202,10 @@
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>40</v>
@@ -5212,10 +5216,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5226,7 +5230,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>40</v>
@@ -5235,22 +5239,22 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>40</v>
@@ -5299,19 +5303,19 @@
         <v>40</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>40</v>
@@ -5320,10 +5324,10 @@
         <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>40</v>
@@ -5334,45 +5338,45 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>40</v>
@@ -5382,7 +5386,7 @@
         <v>40</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>40</v>
@@ -5397,13 +5401,13 @@
         <v>40</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>40</v>
@@ -5421,45 +5425,45 @@
         <v>40</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5467,34 +5471,34 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>40</v>
@@ -5543,34 +5547,34 @@
         <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>40</v>
@@ -5578,10 +5582,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5601,19 +5605,19 @@
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5663,7 +5667,7 @@
         <v>40</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -5675,7 +5679,7 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
@@ -5684,13 +5688,13 @@
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>40</v>
@@ -5698,21 +5702,21 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>40</v>
@@ -5721,22 +5725,22 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>40</v>
@@ -5785,34 +5789,34 @@
         <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>40</v>
@@ -5820,45 +5824,45 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>40</v>
@@ -5907,34 +5911,34 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>40</v>
@@ -5942,10 +5946,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5956,7 +5960,7 @@
         <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
@@ -5965,19 +5969,19 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6027,19 +6031,19 @@
         <v>40</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>40</v>
@@ -6048,13 +6052,13 @@
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>40</v>
@@ -6062,10 +6066,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6085,20 +6089,20 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>40</v>
@@ -6147,7 +6151,7 @@
         <v>40</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
@@ -6159,22 +6163,22 @@
         <v>40</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>40</v>
@@ -6182,10 +6186,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6196,31 +6200,31 @@
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>40</v>
@@ -6245,13 +6249,13 @@
         <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>40</v>
@@ -6269,45 +6273,45 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6318,10 +6322,10 @@
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>40</v>
@@ -6330,19 +6334,19 @@
         <v>40</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>40</v>
@@ -6367,13 +6371,13 @@
         <v>40</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>40</v>
@@ -6391,19 +6395,19 @@
         <v>40</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>40</v>
@@ -6412,10 +6416,10 @@
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>40</v>
@@ -6426,14 +6430,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6452,19 +6456,19 @@
         <v>40</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>40</v>
@@ -6489,13 +6493,13 @@
         <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>40</v>
@@ -6513,7 +6517,7 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
@@ -6525,33 +6529,33 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6574,19 +6578,19 @@
         <v>40</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>40</v>
@@ -6635,7 +6639,7 @@
         <v>40</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
@@ -6647,7 +6651,7 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>40</v>
@@ -6656,10 +6660,10 @@
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>40</v>
@@ -6670,10 +6674,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6684,7 +6688,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>40</v>
@@ -6696,16 +6700,16 @@
         <v>40</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6731,13 +6735,13 @@
         <v>40</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>40</v>
@@ -6755,45 +6759,45 @@
         <v>40</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6804,7 +6808,7 @@
         <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>40</v>
@@ -6816,19 +6820,19 @@
         <v>40</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>40</v>
@@ -6853,13 +6857,13 @@
         <v>40</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>40</v>
@@ -6877,19 +6881,19 @@
         <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>40</v>
@@ -6898,10 +6902,10 @@
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>40</v>
@@ -6912,10 +6916,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6926,7 +6930,7 @@
         <v>38</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>40</v>
@@ -6938,16 +6942,16 @@
         <v>40</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6997,45 +7001,45 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7046,7 +7050,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>40</v>
@@ -7058,16 +7062,16 @@
         <v>40</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7117,45 +7121,45 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7178,19 +7182,19 @@
         <v>40</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>40</v>
@@ -7239,7 +7243,7 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
@@ -7251,7 +7255,7 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>40</v>
@@ -7260,10 +7264,10 @@
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>40</v>
@@ -7274,10 +7278,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7288,7 +7292,7 @@
         <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>40</v>
@@ -7300,13 +7304,13 @@
         <v>40</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7357,13 +7361,13 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>40</v>
@@ -7381,7 +7385,7 @@
         <v>40</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>40</v>
@@ -7392,14 +7396,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7418,16 +7422,16 @@
         <v>40</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7477,7 +7481,7 @@
         <v>40</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
@@ -7489,7 +7493,7 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>40</v>
@@ -7501,7 +7505,7 @@
         <v>40</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>40</v>
@@ -7512,14 +7516,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7532,25 +7536,25 @@
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>40</v>
@@ -7599,7 +7603,7 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -7611,7 +7615,7 @@
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>40</v>
@@ -7623,7 +7627,7 @@
         <v>40</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>40</v>
@@ -7634,10 +7638,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7648,7 +7652,7 @@
         <v>38</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>40</v>
@@ -7660,13 +7664,13 @@
         <v>40</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7717,19 +7721,19 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>40</v>
@@ -7738,10 +7742,10 @@
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>40</v>
@@ -7752,10 +7756,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7766,7 +7770,7 @@
         <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
@@ -7778,13 +7782,13 @@
         <v>40</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7835,19 +7839,19 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>40</v>
@@ -7856,10 +7860,10 @@
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>40</v>
@@ -7870,10 +7874,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7884,7 +7888,7 @@
         <v>38</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>40</v>
@@ -7896,19 +7900,19 @@
         <v>40</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>40</v>
@@ -7933,13 +7937,13 @@
         <v>40</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>40</v>
@@ -7957,31 +7961,31 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>40</v>
@@ -7992,10 +7996,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8018,19 +8022,19 @@
         <v>40</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>40</v>
@@ -8055,13 +8059,13 @@
         <v>40</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>40</v>
@@ -8079,7 +8083,7 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -8091,19 +8095,19 @@
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>40</v>
@@ -8114,10 +8118,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8128,7 +8132,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
@@ -8140,17 +8144,17 @@
         <v>40</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>40</v>
@@ -8199,19 +8203,19 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>40</v>
@@ -8223,7 +8227,7 @@
         <v>40</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>40</v>
@@ -8234,10 +8238,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8248,7 +8252,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>40</v>
@@ -8260,13 +8264,13 @@
         <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8317,19 +8321,19 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>40</v>
@@ -8338,10 +8342,10 @@
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>40</v>
@@ -8352,10 +8356,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8375,19 +8379,19 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8437,7 +8441,7 @@
         <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
@@ -8449,7 +8453,7 @@
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>40</v>
@@ -8458,10 +8462,10 @@
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>40</v>
@@ -8472,10 +8476,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8495,19 +8499,19 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8557,7 +8561,7 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -8569,7 +8573,7 @@
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>40</v>
@@ -8578,10 +8582,10 @@
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>40</v>
@@ -8592,10 +8596,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8603,34 +8607,34 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>40</v>
@@ -8667,17 +8671,17 @@
         <v>40</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
@@ -8689,7 +8693,7 @@
         <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>40</v>
@@ -8698,10 +8702,10 @@
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>40</v>
@@ -8712,10 +8716,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8726,7 +8730,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
@@ -8738,13 +8742,13 @@
         <v>40</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8795,13 +8799,13 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>40</v>
@@ -8819,7 +8823,7 @@
         <v>40</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>40</v>
@@ -8830,14 +8834,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8856,16 +8860,16 @@
         <v>40</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8915,7 +8919,7 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -8927,7 +8931,7 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>40</v>
@@ -8939,7 +8943,7 @@
         <v>40</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>40</v>
@@ -8950,14 +8954,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8970,25 +8974,25 @@
         <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>40</v>
@@ -9037,7 +9041,7 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -9049,7 +9053,7 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>40</v>
@@ -9061,7 +9065,7 @@
         <v>40</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>40</v>
@@ -9072,10 +9076,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9083,34 +9087,34 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>40</v>
@@ -9135,13 +9139,13 @@
         <v>40</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>40</v>
@@ -9159,34 +9163,34 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>40</v>
@@ -9194,10 +9198,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9208,31 +9212,31 @@
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>40</v>
@@ -9257,13 +9261,13 @@
         <v>40</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>40</v>
@@ -9281,45 +9285,45 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9330,10 +9334,10 @@
         <v>38</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>40</v>
@@ -9342,19 +9346,19 @@
         <v>40</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>40</v>
@@ -9379,13 +9383,13 @@
         <v>40</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>40</v>
@@ -9403,19 +9407,19 @@
         <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>40</v>
@@ -9424,10 +9428,10 @@
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>40</v>
@@ -9438,14 +9442,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9464,19 +9468,19 @@
         <v>40</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>40</v>
@@ -9501,13 +9505,13 @@
         <v>40</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>40</v>
@@ -9525,7 +9529,7 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -9537,33 +9541,33 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9589,16 +9593,16 @@
         <v>41</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>40</v>
@@ -9647,7 +9651,7 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>38</v>
@@ -9659,7 +9663,7 @@
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>40</v>
@@ -9668,10 +9672,10 @@
         <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>40</v>
@@ -9682,47 +9686,47 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>40</v>
@@ -9771,7 +9775,7 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
@@ -9783,7 +9787,7 @@
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>40</v>
@@ -9792,10 +9796,10 @@
         <v>40</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>40</v>
@@ -9806,10 +9810,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9820,7 +9824,7 @@
         <v>38</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
@@ -9832,13 +9836,13 @@
         <v>40</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9889,13 +9893,13 @@
         <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>40</v>
@@ -9913,7 +9917,7 @@
         <v>40</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>40</v>
@@ -9924,14 +9928,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9950,16 +9954,16 @@
         <v>40</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -10009,7 +10013,7 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
@@ -10021,7 +10025,7 @@
         <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>40</v>
@@ -10033,7 +10037,7 @@
         <v>40</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>40</v>
@@ -10044,14 +10048,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10064,25 +10068,25 @@
         <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>40</v>
@@ -10131,7 +10135,7 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
@@ -10143,7 +10147,7 @@
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>40</v>
@@ -10155,7 +10159,7 @@
         <v>40</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>40</v>
@@ -10166,10 +10170,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10177,34 +10181,34 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>40</v>
@@ -10214,7 +10218,7 @@
         <v>40</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>40</v>
@@ -10229,13 +10233,13 @@
         <v>40</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>40</v>
@@ -10253,34 +10257,34 @@
         <v>40</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>40</v>
@@ -10288,10 +10292,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10302,31 +10306,31 @@
         <v>38</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>40</v>
@@ -10351,13 +10355,13 @@
         <v>40</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>40</v>
@@ -10375,45 +10379,45 @@
         <v>40</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10424,7 +10428,7 @@
         <v>38</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -10436,13 +10440,13 @@
         <v>40</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10493,13 +10497,13 @@
         <v>40</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>40</v>
@@ -10517,7 +10521,7 @@
         <v>40</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>40</v>
@@ -10528,14 +10532,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10554,16 +10558,16 @@
         <v>40</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10601,19 +10605,19 @@
         <v>40</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>38</v>
@@ -10625,7 +10629,7 @@
         <v>40</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>40</v>
@@ -10637,7 +10641,7 @@
         <v>40</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>40</v>
@@ -10648,10 +10652,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10659,34 +10663,34 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>40</v>
@@ -10735,19 +10739,19 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>40</v>
@@ -10756,10 +10760,10 @@
         <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>40</v>
@@ -10770,10 +10774,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10784,35 +10788,35 @@
         <v>38</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q72" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>40</v>
@@ -10833,13 +10837,13 @@
         <v>40</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>40</v>
@@ -10857,19 +10861,19 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>40</v>
@@ -10878,10 +10882,10 @@
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>40</v>
@@ -10892,10 +10896,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10903,32 +10907,32 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>40</v>
@@ -10977,19 +10981,19 @@
         <v>40</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>40</v>
@@ -10998,10 +11002,10 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>40</v>
@@ -11012,10 +11016,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11023,39 +11027,39 @@
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>40</v>
@@ -11097,19 +11101,19 @@
         <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>40</v>
@@ -11118,10 +11122,10 @@
         <v>40</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>40</v>
@@ -11132,10 +11136,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11143,41 +11147,41 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>40</v>
@@ -11219,19 +11223,19 @@
         <v>40</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>40</v>
@@ -11240,10 +11244,10 @@
         <v>40</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>40</v>
@@ -11254,10 +11258,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11268,10 +11272,10 @@
         <v>38</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>40</v>
@@ -11280,19 +11284,19 @@
         <v>40</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>40</v>
@@ -11317,13 +11321,13 @@
         <v>40</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>40</v>
@@ -11341,19 +11345,19 @@
         <v>40</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>40</v>
@@ -11362,10 +11366,10 @@
         <v>40</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>40</v>
@@ -11376,14 +11380,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -11402,19 +11406,19 @@
         <v>40</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>40</v>
@@ -11439,13 +11443,13 @@
         <v>40</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>40</v>
@@ -11463,7 +11467,7 @@
         <v>40</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>38</v>
@@ -11475,33 +11479,33 @@
         <v>40</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11527,16 +11531,16 @@
         <v>41</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>40</v>
@@ -11585,7 +11589,7 @@
         <v>40</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>38</v>
@@ -11597,7 +11601,7 @@
         <v>40</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>40</v>
@@ -11606,10 +11610,10 @@
         <v>40</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>40</v>
@@ -11620,47 +11624,47 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>40</v>
@@ -11709,7 +11713,7 @@
         <v>40</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>38</v>
@@ -11721,7 +11725,7 @@
         <v>40</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>40</v>
@@ -11730,10 +11734,10 @@
         <v>40</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>40</v>
@@ -11744,10 +11748,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11758,7 +11762,7 @@
         <v>38</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>40</v>
@@ -11770,13 +11774,13 @@
         <v>40</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11827,13 +11831,13 @@
         <v>40</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>40</v>
@@ -11851,7 +11855,7 @@
         <v>40</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>40</v>
@@ -11862,14 +11866,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11888,16 +11892,16 @@
         <v>40</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11947,7 +11951,7 @@
         <v>40</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>38</v>
@@ -11959,7 +11963,7 @@
         <v>40</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>40</v>
@@ -11971,7 +11975,7 @@
         <v>40</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>40</v>
@@ -11982,14 +11986,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12002,25 +12006,25 @@
         <v>40</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>40</v>
@@ -12069,7 +12073,7 @@
         <v>40</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>38</v>
@@ -12081,7 +12085,7 @@
         <v>40</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>40</v>
@@ -12093,7 +12097,7 @@
         <v>40</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>40</v>
@@ -12104,10 +12108,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12115,34 +12119,34 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>40</v>
@@ -12152,7 +12156,7 @@
         <v>40</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>40</v>
@@ -12167,13 +12171,13 @@
         <v>40</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>40</v>
@@ -12191,34 +12195,34 @@
         <v>40</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>40</v>
@@ -12226,10 +12230,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12240,31 +12244,31 @@
         <v>38</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>40</v>
@@ -12289,13 +12293,13 @@
         <v>40</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>40</v>
@@ -12313,45 +12317,45 @@
         <v>40</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12362,7 +12366,7 @@
         <v>38</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>40</v>
@@ -12374,13 +12378,13 @@
         <v>40</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12431,13 +12435,13 @@
         <v>40</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>40</v>
@@ -12455,7 +12459,7 @@
         <v>40</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>40</v>
@@ -12466,14 +12470,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12492,16 +12496,16 @@
         <v>40</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12539,19 +12543,19 @@
         <v>40</v>
       </c>
       <c r="AB86" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AC86" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AD86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>38</v>
@@ -12563,7 +12567,7 @@
         <v>40</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>40</v>
@@ -12575,7 +12579,7 @@
         <v>40</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>40</v>
@@ -12586,10 +12590,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12597,34 +12601,34 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>40</v>
@@ -12673,19 +12677,19 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>40</v>
@@ -12694,10 +12698,10 @@
         <v>40</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>40</v>
@@ -12708,10 +12712,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12722,35 +12726,35 @@
         <v>38</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q88" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>40</v>
@@ -12771,13 +12775,13 @@
         <v>40</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>40</v>
@@ -12795,19 +12799,19 @@
         <v>40</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>40</v>
@@ -12816,10 +12820,10 @@
         <v>40</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>40</v>
@@ -12830,10 +12834,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12841,32 +12845,32 @@
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>40</v>
@@ -12915,19 +12919,19 @@
         <v>40</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>40</v>
@@ -12936,10 +12940,10 @@
         <v>40</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>40</v>
@@ -12950,10 +12954,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12961,39 +12965,39 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="S90" t="s" s="2">
         <v>40</v>
@@ -13035,19 +13039,19 @@
         <v>40</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>40</v>
@@ -13056,10 +13060,10 @@
         <v>40</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>40</v>
@@ -13070,10 +13074,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13081,41 +13085,41 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>40</v>
@@ -13157,19 +13161,19 @@
         <v>40</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>40</v>
@@ -13178,10 +13182,10 @@
         <v>40</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>40</v>
@@ -13192,10 +13196,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13206,10 +13210,10 @@
         <v>38</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>40</v>
@@ -13218,19 +13222,19 @@
         <v>40</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>40</v>
@@ -13255,13 +13259,13 @@
         <v>40</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>40</v>
@@ -13279,19 +13283,19 @@
         <v>40</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>40</v>
@@ -13300,10 +13304,10 @@
         <v>40</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>40</v>
@@ -13314,14 +13318,14 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -13340,19 +13344,19 @@
         <v>40</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>40</v>
@@ -13377,13 +13381,13 @@
         <v>40</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>40</v>
@@ -13401,7 +13405,7 @@
         <v>40</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>38</v>
@@ -13413,33 +13417,33 @@
         <v>40</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13465,16 +13469,16 @@
         <v>41</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>40</v>
@@ -13523,7 +13527,7 @@
         <v>40</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>38</v>
@@ -13535,7 +13539,7 @@
         <v>40</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>40</v>
@@ -13544,10 +13548,10 @@
         <v>40</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>40</v>

--- a/StructureDefinition-us-core-average-blood-pressure.xlsx
+++ b/StructureDefinition-us-core-average-blood-pressure.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://www.fhir.org/guides/uscdi4-sandbox/StructureDefinition/us-core-average-blood-pressure</t>
+    <t>http://hl7.org/fhir/us/core/StructureDefinition/us-core-average-blood-pressure</t>
   </si>
   <si>
     <t>Version</t>
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>To promote interoperability and adoption through common implementation, this profile sets minimum expectations for the Observation resource to record, search, and fetch average diastolic and systolic blood pressure observations with standard LOINC codes and UCUM units of measure. It is based on the US Core Vital Signs Profile and identifies which *additional* core elements, extensions, vocabularies, and value sets **SHALL** be present and constrains the way the elements are used when using the profile. It provides the floor for standards development for specific use cases.</t>
+    <t>To promote interoperability and adoption through common implementation, this profile sets minimum expectations for the Observation resource to record, search, and fetch average diastolic and systolic blood pressure observations with standard LOINC codes and UCUM units of measure. It is based on the US Core Vital Signs Profile and identifies which *additional* core elements, extensions, vocabularies, and value sets  **SHALL** be present and constrains the way the elements are used when using the profile.  It provides the floor for standards development for specific use cases.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-us-core-average-blood-pressure.xlsx
+++ b/StructureDefinition-us-core-average-blood-pressure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3646" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3646" uniqueCount="579">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-02</t>
+    <t>2023-10-11</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -772,7 +772,7 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) Average Blood Pressure</t>
+    <t>Average Blood Pressure</t>
   </si>
   <si>
     <t>Coded Responses from C-CDA Vital Sign Results.</t>
@@ -915,7 +915,7 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) clinically relevant time-period for the average of blood pressure (BP) readings</t>
+    <t>clinically relevant time-period for the average of blood pressure (BP) readings</t>
   </si>
   <si>
     <t>Often just a dateTime for Vital Signs.</t>
@@ -1468,7 +1468,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>(USCDI) Component observations</t>
+    <t>Component observations</t>
   </si>
   <si>
     <t>Used when reporting component observation such as systolic and diastolic blood pressure.</t>
@@ -1576,7 +1576,7 @@
     <t>systolic</t>
   </si>
   <si>
-    <t>(USCDI) Average Systolic Blood Pressure</t>
+    <t>Average Systolic Blood Pressure</t>
   </si>
   <si>
     <t>Observation.component:systolic.id</t>
@@ -1591,7 +1591,7 @@
     <t>Observation.component:systolic.code</t>
   </si>
   <si>
-    <t>(USCDI) Average Systolic Blood Pressure Code</t>
+    <t>Average Systolic Blood Pressure Code</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1609,6 +1609,9 @@
 </t>
   </si>
   <si>
+    <t>Vital Sign Component Value</t>
+  </si>
+  <si>
     <t>Observation.component:systolic.value[x].id</t>
   </si>
   <si>
@@ -1631,7 +1634,7 @@
 </t>
   </si>
   <si>
-    <t>(USCDI) Numerical value (with implicit precision)</t>
+    <t>Numerical value (with implicit precision)</t>
   </si>
   <si>
     <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
@@ -1691,7 +1694,7 @@
     <t>Observation.component.value[x].unit</t>
   </si>
   <si>
-    <t>(USCDI) Unit representation</t>
+    <t>Unit representation</t>
   </si>
   <si>
     <t>A human-readable form of the unit.</t>
@@ -1715,7 +1718,7 @@
     <t>Observation.component.value[x].system</t>
   </si>
   <si>
-    <t>(USCDI) System that defines coded unit form</t>
+    <t>System that defines coded unit form</t>
   </si>
   <si>
     <t>The identification of the system that provides the coded form of the unit.</t>
@@ -1743,7 +1746,7 @@
     <t>Observation.component.value[x].code</t>
   </si>
   <si>
-    <t>(USCDI) Coded form of the unit</t>
+    <t>Coded form of the unit</t>
   </si>
   <si>
     <t>A computer processable form of the unit in some unit representation system.</t>
@@ -1779,7 +1782,7 @@
     <t>diastolic</t>
   </si>
   <si>
-    <t>(USCDI) Average Diastolic Blood Pressure</t>
+    <t>Average Diastolic Blood Pressure</t>
   </si>
   <si>
     <t>Observation.component:diastolic.id</t>
@@ -1794,7 +1797,7 @@
     <t>Observation.component:diastolic.code</t>
   </si>
   <si>
-    <t>(USCDI) Average Diastolic Blood Pressure Code</t>
+    <t>Average Diastolic Blood Pressure Code</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -10321,7 +10324,7 @@
         <v>503</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>480</v>
@@ -10414,10 +10417,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10532,10 +10535,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10652,10 +10655,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10678,19 +10681,19 @@
         <v>50</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>40</v>
@@ -10739,7 +10742,7 @@
         <v>40</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>38</v>
@@ -10760,10 +10763,10 @@
         <v>40</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>40</v>
@@ -10774,10 +10777,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10803,20 +10806,20 @@
         <v>69</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q72" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="R72" t="s" s="2">
         <v>40</v>
@@ -10840,10 +10843,10 @@
         <v>138</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>40</v>
@@ -10861,7 +10864,7 @@
         <v>40</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>38</v>
@@ -10882,10 +10885,10 @@
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>40</v>
@@ -10896,10 +10899,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10925,14 +10928,14 @@
         <v>161</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>40</v>
@@ -10981,7 +10984,7 @@
         <v>40</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>38</v>
@@ -11002,10 +11005,10 @@
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>40</v>
@@ -11016,10 +11019,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11045,21 +11048,21 @@
         <v>63</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>40</v>
@@ -11101,7 +11104,7 @@
         <v>40</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>38</v>
@@ -11110,7 +11113,7 @@
         <v>49</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>61</v>
@@ -11122,10 +11125,10 @@
         <v>40</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>40</v>
@@ -11136,10 +11139,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11165,23 +11168,23 @@
         <v>69</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>40</v>
@@ -11223,7 +11226,7 @@
         <v>40</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>38</v>
@@ -11244,10 +11247,10 @@
         <v>40</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>40</v>
@@ -11258,7 +11261,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>484</v>
@@ -11380,7 +11383,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>489</v>
@@ -11502,7 +11505,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>490</v>
@@ -11624,13 +11627,13 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>459</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>40</v>
@@ -11655,7 +11658,7 @@
         <v>394</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>462</v>
@@ -11748,7 +11751,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>469</v>
@@ -11866,7 +11869,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>470</v>
@@ -11986,7 +11989,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>471</v>
@@ -12108,7 +12111,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>472</v>
@@ -12137,7 +12140,7 @@
         <v>146</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M83" t="s" s="2">
         <v>474</v>
@@ -12156,7 +12159,7 @@
         <v>40</v>
       </c>
       <c r="S83" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>40</v>
@@ -12230,7 +12233,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>478</v>
@@ -12259,7 +12262,7 @@
         <v>503</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>479</v>
+        <v>504</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>480</v>
@@ -12352,10 +12355,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12470,10 +12473,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12590,10 +12593,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12616,19 +12619,19 @@
         <v>50</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>40</v>
@@ -12677,7 +12680,7 @@
         <v>40</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>38</v>
@@ -12698,10 +12701,10 @@
         <v>40</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>40</v>
@@ -12712,10 +12715,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12741,20 +12744,20 @@
         <v>69</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q88" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="R88" t="s" s="2">
         <v>40</v>
@@ -12778,10 +12781,10 @@
         <v>138</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>40</v>
@@ -12799,7 +12802,7 @@
         <v>40</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>38</v>
@@ -12820,10 +12823,10 @@
         <v>40</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>40</v>
@@ -12834,10 +12837,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12863,14 +12866,14 @@
         <v>161</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>40</v>
@@ -12919,7 +12922,7 @@
         <v>40</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>38</v>
@@ -12940,10 +12943,10 @@
         <v>40</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>40</v>
@@ -12954,10 +12957,10 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12983,21 +12986,21 @@
         <v>63</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="S90" t="s" s="2">
         <v>40</v>
@@ -13039,7 +13042,7 @@
         <v>40</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>38</v>
@@ -13048,7 +13051,7 @@
         <v>49</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>61</v>
@@ -13060,10 +13063,10 @@
         <v>40</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>40</v>
@@ -13074,10 +13077,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13103,23 +13106,23 @@
         <v>69</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>40</v>
@@ -13161,7 +13164,7 @@
         <v>40</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>38</v>
@@ -13182,10 +13185,10 @@
         <v>40</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>40</v>
@@ -13196,7 +13199,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>484</v>
@@ -13318,7 +13321,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>489</v>
@@ -13440,7 +13443,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>490</v>

--- a/StructureDefinition-us-core-average-blood-pressure.xlsx
+++ b/StructureDefinition-us-core-average-blood-pressure.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11</t>
+    <t>2023-10-12</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-us-core-average-blood-pressure.xlsx
+++ b/StructureDefinition-us-core-average-blood-pressure.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12</t>
+    <t>2023-10-19</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -911,8 +911,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
+    <t>dateTime
+Period</t>
   </si>
   <si>
     <t>clinically relevant time-period for the average of blood pressure (BP) readings</t>

--- a/StructureDefinition-us-core-average-blood-pressure.xlsx
+++ b/StructureDefinition-us-core-average-blood-pressure.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19</t>
+    <t>2023-10-20</t>
   </si>
   <si>
     <t>Publisher</t>
